--- a/biology/Botanique/Conseil_interprofessionnel_des_vins_de_la_région_des_Bergerac/Conseil_interprofessionnel_des_vins_de_la_région_des_Bergerac.xlsx
+++ b/biology/Botanique/Conseil_interprofessionnel_des_vins_de_la_région_des_Bergerac/Conseil_interprofessionnel_des_vins_de_la_région_des_Bergerac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conseil_interprofessionnel_des_vins_de_la_r%C3%A9gion_des_Bergerac</t>
+          <t>Conseil_interprofessionnel_des_vins_de_la_région_des_Bergerac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Conseil interprofessionnel des vins de la région des Bergerac ou CIVRB est une association de opérateurs de vin d'appellation régionale bergerac qui est reconnue par les pouvoirs publics français[1].
-Il perçoit, en 2010, des contributions volontaires obligatoires auprès des professionnels du secteur à hauteur de 4 578 000 euros[2].
-En août 2014, le CIRVB fusionne avec le Conseil interprofessionnel des vins (CIV) de Duras pour donner naissance à l’Interprofession des vins de Bergerac-Duras (IVBD)[3].
-Le CIRVB est membre de Vin et société[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Conseil interprofessionnel des vins de la région des Bergerac ou CIVRB est une association de opérateurs de vin d'appellation régionale bergerac qui est reconnue par les pouvoirs publics français.
+Il perçoit, en 2010, des contributions volontaires obligatoires auprès des professionnels du secteur à hauteur de 4 578 000 euros.
+En août 2014, le CIRVB fusionne avec le Conseil interprofessionnel des vins (CIV) de Duras pour donner naissance à l’Interprofession des vins de Bergerac-Duras (IVBD).
+Le CIRVB est membre de Vin et société.
 </t>
         </is>
       </c>
